--- a/Doc/TodoList.xlsx
+++ b/Doc/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>c#游戏框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bundle命名配置化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +185,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +269,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1"/>
@@ -728,7 +742,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" thickBot="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -752,6 +766,11 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/TodoList.xlsx
+++ b/Doc/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,22 @@
   </si>
   <si>
     <t>bundle命名配置化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protobuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shader打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolua的生成wrap文件接口单独写自定义CustomSettings.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolua框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,8 +287,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,15 +661,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="2" bestFit="1" customWidth="1"/>
@@ -654,7 +679,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -674,7 +699,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -694,7 +719,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -710,11 +735,11 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" thickBot="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -728,7 +753,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" thickBot="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -742,8 +767,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" thickBot="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -753,7 +781,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -761,7 +789,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" thickBot="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -769,8 +797,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" thickBot="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/TodoList.xlsx
+++ b/Doc/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>tolua框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +672,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1"/>
@@ -751,6 +759,9 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:6" thickBot="1">
       <c r="A5" s="7" t="s">
@@ -764,6 +775,9 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" thickBot="1">

--- a/Doc/TodoList.xlsx
+++ b/Doc/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>animator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,18 @@
   </si>
   <si>
     <t>新手引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +680,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1"/>
@@ -700,15 +708,15 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -720,10 +728,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" thickBot="1">
@@ -740,10 +748,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" thickBot="1">
@@ -759,8 +767,11 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" thickBot="1">
@@ -768,16 +779,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" thickBot="1">
@@ -785,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" thickBot="1">
@@ -799,30 +813,30 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="50.25" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/TodoList.xlsx
+++ b/Doc/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帧同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通用Lockstep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tolua的生成wrap文件接口单独写自定义CustomSettings.cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tolua框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,11 +166,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>换装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLG大地图同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型分部分加载再组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步加载和异步加载冲突解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形分块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +272,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +368,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1"/>
@@ -689,12 +753,12 @@
     <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -702,39 +766,51 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" thickBot="1">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -742,101 +818,127 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" thickBot="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" thickBot="1">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" thickBot="1">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" thickBot="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" thickBot="1">
+    <row r="9" spans="1:8" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="50.25" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/TodoList.xlsx
+++ b/Doc/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,26 @@
   </si>
   <si>
     <t>LightMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯lua事件分发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c#和lua事件分发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地图加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,17 +365,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -370,13 +381,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,200 +755,215 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" thickBot="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="33.75" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" thickBot="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" thickBot="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" thickBot="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" thickBot="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:8" thickBot="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33.75" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
